--- a/year.xlsx
+++ b/year.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serendipaty\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92DE5EE-0BF2-4039-890D-3BF58C43AB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F739EDA-A110-48B0-88C0-D0A3133FBD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="9280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="212">
   <si>
     <t>Yahoo Code</t>
   </si>
@@ -28,6 +28,9 @@
     <t>52-Week Range</t>
   </si>
   <si>
+    <t>Percentage Return</t>
+  </si>
+  <si>
     <t>WHEELS.NS</t>
   </si>
   <si>
@@ -49,13 +52,13 @@
     <t>TVSHLTD.NS</t>
   </si>
   <si>
-    <t>3,701.20 - 5,920.00</t>
+    <t>3,701.20 - 6,169.40</t>
   </si>
   <si>
     <t>TVSMOTOR.NS</t>
   </si>
   <si>
-    <t>967.55 - 1,818.40</t>
+    <t>967.55 - 1,898.65</t>
   </si>
   <si>
     <t>MARUTI.NS</t>
@@ -67,19 +70,601 @@
     <t>HEROMOTOCO.NS</t>
   </si>
   <si>
-    <t>2,246.00 - 3,579.80</t>
+    <t>2,246.00 - 3,884.50</t>
   </si>
   <si>
     <t>CRAFTSMAN.NS</t>
   </si>
   <si>
     <t>2,735.00 - 5,419.00</t>
+  </si>
+  <si>
+    <t>ACC.BO</t>
+  </si>
+  <si>
+    <t>1,593.50 - 2,674.45</t>
+  </si>
+  <si>
+    <t>ADANIENT.NS</t>
+  </si>
+  <si>
+    <t>1,017.45 - 4,190.00</t>
+  </si>
+  <si>
+    <t>ADANIGREEN.NS</t>
+  </si>
+  <si>
+    <t>439.10 - 2,185.00</t>
+  </si>
+  <si>
+    <t>ADANIPOWER.NS</t>
+  </si>
+  <si>
+    <t>132.40 - 470.80</t>
+  </si>
+  <si>
+    <t>ATGL.NS</t>
+  </si>
+  <si>
+    <t>522.00 - 4,000.00</t>
+  </si>
+  <si>
+    <t>ADANIENSOL.NS</t>
+  </si>
+  <si>
+    <t>686.00 - 976.95</t>
+  </si>
+  <si>
+    <t>AWL.NS</t>
+  </si>
+  <si>
+    <t>285.80 - 666.00</t>
+  </si>
+  <si>
+    <t>AMBUJACEM.NS</t>
+  </si>
+  <si>
+    <t>315.30 - 598.00</t>
+  </si>
+  <si>
+    <t>NDTV.NS</t>
+  </si>
+  <si>
+    <t>168.55 - 444.95</t>
+  </si>
+  <si>
+    <t>OLECTRA.NS</t>
+  </si>
+  <si>
+    <t>374.10 - 1,465.00</t>
+  </si>
+  <si>
+    <t>^NSEI</t>
+  </si>
+  <si>
+    <t>16,828.35 - 20,281.00</t>
+  </si>
+  <si>
+    <t>METROPOLIS.NS</t>
+  </si>
+  <si>
+    <t>1,171.35 - 1,715.50</t>
+  </si>
+  <si>
+    <t>NDRAUTO.NS</t>
+  </si>
+  <si>
+    <t>238.50 - 778.00</t>
+  </si>
+  <si>
+    <t>AUTOAXLES.NS</t>
+  </si>
+  <si>
+    <t>1,872.05 - 2,693.20</t>
+  </si>
+  <si>
+    <t>UNIPARTS.NS</t>
+  </si>
+  <si>
+    <t>501.15 - 722.65</t>
+  </si>
+  <si>
+    <t>JAYBARMARU.NS</t>
+  </si>
+  <si>
+    <t>51.22 - 137.56</t>
+  </si>
+  <si>
+    <t>MOTHERSON.NS</t>
+  </si>
+  <si>
+    <t>61.80 - 103.40</t>
+  </si>
+  <si>
+    <t>MSUMI.NS</t>
+  </si>
+  <si>
+    <t>45.15 - 68.00</t>
+  </si>
+  <si>
+    <t>SONACOMS.NS</t>
+  </si>
+  <si>
+    <t>398.05 - 625.95</t>
+  </si>
+  <si>
+    <t>UNOMINDA.NS</t>
+  </si>
+  <si>
+    <t>435.00 - 694.70</t>
+  </si>
+  <si>
+    <t>TIINDIA.NS</t>
+  </si>
+  <si>
+    <t>2,375.00 - 3,830.00</t>
+  </si>
+  <si>
+    <t>GNA.NS</t>
+  </si>
+  <si>
+    <t>313.62 - 583.25</t>
+  </si>
+  <si>
+    <t>PRICOLLTD.NS</t>
+  </si>
+  <si>
+    <t>174.75 - 385.70</t>
+  </si>
+  <si>
+    <t>JBMA.NS</t>
+  </si>
+  <si>
+    <t>405.00 - 1,607.65</t>
+  </si>
+  <si>
+    <t>JAMNAAUTO.NS</t>
+  </si>
+  <si>
+    <t>94.40 - 127.10</t>
+  </si>
+  <si>
+    <t>RICOAUTO.NS</t>
+  </si>
+  <si>
+    <t>62.95 - 111.50</t>
+  </si>
+  <si>
+    <t>FRONTSP.BO</t>
+  </si>
+  <si>
+    <t>165.10 - 899.90</t>
+  </si>
+  <si>
+    <t>HITECHCORP.NS</t>
+  </si>
+  <si>
+    <t>151.35 - 309.00</t>
+  </si>
+  <si>
+    <t>VARROC.NS</t>
+  </si>
+  <si>
+    <t>239.45 - 583.50</t>
+  </si>
+  <si>
+    <t>MENONBE.NS</t>
+  </si>
+  <si>
+    <t>81.75 - 166.40</t>
+  </si>
+  <si>
+    <t>MENNPIS.BO</t>
+  </si>
+  <si>
+    <t>7.76 - 72.48</t>
+  </si>
+  <si>
+    <t>LUMAXIND.NS</t>
+  </si>
+  <si>
+    <t>1,563.25 - 2,790.05</t>
+  </si>
+  <si>
+    <t>FOCUS.NS</t>
+  </si>
+  <si>
+    <t>52.21 - 193.85</t>
+  </si>
+  <si>
+    <t>RAJRATAN.NS</t>
+  </si>
+  <si>
+    <t>697.00 - 943.00</t>
+  </si>
+  <si>
+    <t>LUMAXTECH.NS</t>
+  </si>
+  <si>
+    <t>202.05 - 469.95</t>
+  </si>
+  <si>
+    <t>MGL.NS</t>
+  </si>
+  <si>
+    <t>820.10 - 1,152.00</t>
+  </si>
+  <si>
+    <t>MMFL.NS</t>
+  </si>
+  <si>
+    <t>771.00 - 1,099.00</t>
+  </si>
+  <si>
+    <t>GABRIEL.NS</t>
+  </si>
+  <si>
+    <t>129.45 - 432.00</t>
+  </si>
+  <si>
+    <t>VINATIORGA.NS</t>
+  </si>
+  <si>
+    <t>1,692.55 - 2,195.00</t>
+  </si>
+  <si>
+    <t>PIDILITIND.NS</t>
+  </si>
+  <si>
+    <t>2,250.05 - 2,796.00</t>
+  </si>
+  <si>
+    <t>SRF.NS</t>
+  </si>
+  <si>
+    <t>2,040.00 - 2,636.00</t>
+  </si>
+  <si>
+    <t>LINDEINDIA.NS</t>
+  </si>
+  <si>
+    <t>3,028.85 - 6,790.00</t>
+  </si>
+  <si>
+    <t>FLUOROCHEM.NS</t>
+  </si>
+  <si>
+    <t>2,534.05 - 3,488.00</t>
+  </si>
+  <si>
+    <t>SOLARINDS.NS</t>
+  </si>
+  <si>
+    <t>3,453.35 - 7,832.90</t>
+  </si>
+  <si>
+    <t>DEEPAKNTR.NS</t>
+  </si>
+  <si>
+    <t>1,730.00 - 2,372.70</t>
+  </si>
+  <si>
+    <t>TATACHEM.NS</t>
+  </si>
+  <si>
+    <t>876.80 - 1,110.85</t>
+  </si>
+  <si>
+    <t>NEOGEN.NS</t>
+  </si>
+  <si>
+    <t>1,140.00 - 1,859.30</t>
+  </si>
+  <si>
+    <t>HERANBA.NS</t>
+  </si>
+  <si>
+    <t>265.00 - 540.25</t>
+  </si>
+  <si>
+    <t>NGLFINE.NS</t>
+  </si>
+  <si>
+    <t>1,175.05 - 2,439.95</t>
+  </si>
+  <si>
+    <t>NAVINFLUOR.NS</t>
+  </si>
+  <si>
+    <t>3,356.55 - 4,950.00</t>
+  </si>
+  <si>
+    <t>EXCELINDUS.NS</t>
+  </si>
+  <si>
+    <t>752.00 - 1,240.35</t>
+  </si>
+  <si>
+    <t>SUMICHEM.NS</t>
+  </si>
+  <si>
+    <t>371.00 - 499.00</t>
+  </si>
+  <si>
+    <t>BALAMINES.NS</t>
+  </si>
+  <si>
+    <t>1,880.00 - 3,046.00</t>
+  </si>
+  <si>
+    <t>VISHNU.NS</t>
+  </si>
+  <si>
+    <t>244.85 - 385.50</t>
+  </si>
+  <si>
+    <t>VINYLINDIA.NS</t>
+  </si>
+  <si>
+    <t>317.00 - 584.90</t>
+  </si>
+  <si>
+    <t>POCL.NS</t>
+  </si>
+  <si>
+    <t>61.30 - 521.30</t>
+  </si>
+  <si>
+    <t>AARTIIND.NS</t>
+  </si>
+  <si>
+    <t>438.00 - 679.95</t>
+  </si>
+  <si>
+    <t>CLEAN.NS</t>
+  </si>
+  <si>
+    <t>1,227.10 - 1,593.00</t>
+  </si>
+  <si>
+    <t>ANURAS.NS</t>
+  </si>
+  <si>
+    <t>570.00 - 1,234.00</t>
+  </si>
+  <si>
+    <t>ATUL.NS</t>
+  </si>
+  <si>
+    <t>6,122.05 - 8,947.85</t>
+  </si>
+  <si>
+    <t>BASF.NS</t>
+  </si>
+  <si>
+    <t>2,193.00 - 3,178.00</t>
+  </si>
+  <si>
+    <t>CHEMCON.NS</t>
+  </si>
+  <si>
+    <t>221.00 - 319.45</t>
+  </si>
+  <si>
+    <t>DCW.NS</t>
+  </si>
+  <si>
+    <t>40.05 - 63.40</t>
+  </si>
+  <si>
+    <t>FINEORG.NS</t>
+  </si>
+  <si>
+    <t>4,040.00 - 6,220.00</t>
+  </si>
+  <si>
+    <t>GALAXYSURF.NS</t>
+  </si>
+  <si>
+    <t>2,221.60 - 2,978.95</t>
+  </si>
+  <si>
+    <t>GHCL.NS</t>
+  </si>
+  <si>
+    <t>464.15 - 659.90</t>
+  </si>
+  <si>
+    <t>HIKAL.NS</t>
+  </si>
+  <si>
+    <t>250.10 - 427.80</t>
+  </si>
+  <si>
+    <t>INDIAGLYCO.NS</t>
+  </si>
+  <si>
+    <t>512.35 - 802.60</t>
+  </si>
+  <si>
+    <t>JUBLINGREA.NS</t>
+  </si>
+  <si>
+    <t>350.45 - 568.05</t>
+  </si>
+  <si>
+    <t>LXCHEM.NS</t>
+  </si>
+  <si>
+    <t>220.50 - 321.00</t>
+  </si>
+  <si>
+    <t>NOCIL.NS</t>
+  </si>
+  <si>
+    <t>199.10 - 254.90</t>
+  </si>
+  <si>
+    <t>OAL.NS</t>
+  </si>
+  <si>
+    <t>295.55 - 503.20</t>
+  </si>
+  <si>
+    <t>TINNARUBR.BO</t>
+  </si>
+  <si>
+    <t>12.65 - 607.90</t>
+  </si>
+  <si>
+    <t>PRIVISCL.NS</t>
+  </si>
+  <si>
+    <t>871.05 - 1,365.50</t>
+  </si>
+  <si>
+    <t>ROSSARI.NS</t>
+  </si>
+  <si>
+    <t>536.35 - 903.85</t>
+  </si>
+  <si>
+    <t>SHK.NS</t>
+  </si>
+  <si>
+    <t>81.65 - 172.90</t>
+  </si>
+  <si>
+    <t>SUDARSCHEM.NS</t>
+  </si>
+  <si>
+    <t>341.00 - 566.95</t>
+  </si>
+  <si>
+    <t>TATVA.NS</t>
+  </si>
+  <si>
+    <t>1,399.90 - 2,323.00</t>
+  </si>
+  <si>
+    <t>DHANUKA.NS</t>
+  </si>
+  <si>
+    <t>605.10 - 958.00</t>
+  </si>
+  <si>
+    <t>PUNJABCHEM.NS</t>
+  </si>
+  <si>
+    <t>727.55 - 1,311.95</t>
+  </si>
+  <si>
+    <t>RALLIS.NS</t>
+  </si>
+  <si>
+    <t>186.55 - 270.90</t>
+  </si>
+  <si>
+    <t>SHARDAMOTR.NS</t>
+  </si>
+  <si>
+    <t>550.40 - 1,379.75</t>
+  </si>
+  <si>
+    <t>UPL.NS</t>
+  </si>
+  <si>
+    <t>528.15 - 807.00</t>
+  </si>
+  <si>
+    <t>INSECTICID.NS</t>
+  </si>
+  <si>
+    <t>414.05 - 768.00</t>
+  </si>
+  <si>
+    <t>MOL.NS</t>
+  </si>
+  <si>
+    <t>71.90 - 117.80</t>
+  </si>
+  <si>
+    <t>HSCL.NS</t>
+  </si>
+  <si>
+    <t>80.20 - 288.95</t>
+  </si>
+  <si>
+    <t>SARDAEN.NS</t>
+  </si>
+  <si>
+    <t>96.68 - 1,074.80</t>
+  </si>
+  <si>
+    <t>SHARDACROP.NS</t>
+  </si>
+  <si>
+    <t>388.35 - 580.00</t>
+  </si>
+  <si>
+    <t>DENORA.NS</t>
+  </si>
+  <si>
+    <t>586.10 - 2,336.95</t>
+  </si>
+  <si>
+    <t>GUJALKALI.NS</t>
+  </si>
+  <si>
+    <t>556.35 - 810.10</t>
+  </si>
+  <si>
+    <t>BESTAGRO.NS</t>
+  </si>
+  <si>
+    <t>887.15 - 1,775.00</t>
+  </si>
+  <si>
+    <t>MFL.NS</t>
+  </si>
+  <si>
+    <t>PLASTIBLEN.NS</t>
+  </si>
+  <si>
+    <t>138.55 - 329.70</t>
+  </si>
+  <si>
+    <t>PIIND.NS</t>
+  </si>
+  <si>
+    <t>2,868.90 - 4,011.15</t>
+  </si>
+  <si>
+    <t>BESTAGRO.BO</t>
+  </si>
+  <si>
+    <t>882.00 - 892.00</t>
+  </si>
+  <si>
+    <t>IVP.NS</t>
+  </si>
+  <si>
+    <t>112.00 - 233.90</t>
+  </si>
+  <si>
+    <t>ACE.NS</t>
+  </si>
+  <si>
+    <t>265.30 - 895.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,11 +715,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,86 +1026,1287 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>97.779319916724489</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3">
+        <v>97.272606911161148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3">
+        <v>105.8958333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
+        <v>66.686480060520921</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3">
+        <v>96.232752829311167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3">
+        <v>34.285944242544311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3">
+        <v>72.951914514692788</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3">
+        <v>98.135283363802557</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3">
+        <v>67.834954502667074</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3">
+        <v>311.81384834635611</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3">
+        <v>397.60874516055571</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="3">
+        <v>255.5891238670695</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="3">
+        <v>666.28352490421457</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3">
+        <v>42.412536443148703</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="3">
+        <v>133.03009097270819</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="3">
+        <v>89.660640659689179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="3">
+        <v>163.9869474933254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="3">
+        <v>291.60652232023517</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="3">
+        <v>20.51686588405876</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="3">
+        <v>46.45494514875999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="3">
+        <v>226.2054507337526</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="3">
+        <v>43.863678854731432</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="3">
+        <v>44.198343809238757</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="3">
+        <v>168.566966028895</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="3">
+        <v>67.313915857605195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="3">
+        <v>50.609080841638978</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="3">
+        <v>57.254113804798401</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="3">
+        <v>59.701149425287369</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="3">
+        <v>61.263157894736842</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="3">
+        <v>85.973471079650537</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="3">
+        <v>120.71530758226039</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="3">
+        <v>296.95061728395058</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="3">
+        <v>34.63983050847456</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="3">
+        <v>77.124702144559166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="3">
+        <v>445.06359781950329</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="3">
+        <v>104.1625371655104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="3">
+        <v>143.68344121946129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="3">
+        <v>103.5474006116208</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="3">
+        <v>834.02061855670104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="3">
+        <v>78.477530785223109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="3">
+        <v>271.28902509097873</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="3">
+        <v>35.294117647058833</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="3">
+        <v>132.59094283593171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="3">
+        <v>40.470674308011212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="3">
+        <v>42.542153047989622</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="3">
+        <v>233.71958285052139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B48" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C48" s="3">
+        <v>97.779319916724489</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B49" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C49" s="3">
+        <v>97.272606911161148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B50" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C50" s="3">
+        <v>105.8958333333333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B51" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C51" s="3">
+        <v>66.686480060520921</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B52" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C52" s="3">
+        <v>96.232752829311167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B53" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C53" s="3">
+        <v>34.285944242544311</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B54" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C54" s="3">
+        <v>72.951914514692788</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>17</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="3">
+        <v>98.135283363802557</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="3">
+        <v>29.685976780597329</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="3">
+        <v>24.26390524655007</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" s="3">
+        <v>29.21568627450981</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>101</v>
+      </c>
+      <c r="B59" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="3">
+        <v>124.1774931079453</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>103</v>
+      </c>
+      <c r="B60" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" s="3">
+        <v>37.645271403484529</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>105</v>
+      </c>
+      <c r="B61" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" s="3">
+        <v>126.8203338786975</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="3">
+        <v>37.150289017341031</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="3">
+        <v>26.69365875912408</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>111</v>
+      </c>
+      <c r="B64" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" s="3">
+        <v>63.096491228070171</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="3">
+        <v>103.8679245283019</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>115</v>
+      </c>
+      <c r="B66" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" s="3">
+        <v>107.6464831283775</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>117</v>
+      </c>
+      <c r="B67" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" s="3">
+        <v>47.472851588684797</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C68" s="3">
+        <v>64.940159574468069</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>121</v>
+      </c>
+      <c r="B69" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" s="3">
+        <v>34.501347708894883</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>123</v>
+      </c>
+      <c r="B70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70" s="3">
+        <v>62.021276595744681</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>125</v>
+      </c>
+      <c r="B71" t="s">
+        <v>126</v>
+      </c>
+      <c r="C71" s="3">
+        <v>57.443332652644493</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>127</v>
+      </c>
+      <c r="B72" t="s">
+        <v>128</v>
+      </c>
+      <c r="C72" s="3">
+        <v>84.51104100946371</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>129</v>
+      </c>
+      <c r="B73" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" s="3">
+        <v>750.40783034257743</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>131</v>
+      </c>
+      <c r="B74" t="s">
+        <v>132</v>
+      </c>
+      <c r="C74" s="3">
+        <v>55.239726027397268</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>133</v>
+      </c>
+      <c r="B75" t="s">
+        <v>134</v>
+      </c>
+      <c r="C75" s="3">
+        <v>29.81827071958277</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>135</v>
+      </c>
+      <c r="B76" t="s">
+        <v>136</v>
+      </c>
+      <c r="C76" s="3">
+        <v>116.4912280701755</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>137</v>
+      </c>
+      <c r="B77" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="3">
+        <v>46.157741279473377</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>139</v>
+      </c>
+      <c r="B78" t="s">
+        <v>140</v>
+      </c>
+      <c r="C78" s="3">
+        <v>44.915640674874602</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>141</v>
+      </c>
+      <c r="B79" t="s">
+        <v>142</v>
+      </c>
+      <c r="C79" s="3">
+        <v>44.547511312217189</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>143</v>
+      </c>
+      <c r="B80" t="s">
+        <v>144</v>
+      </c>
+      <c r="C80" s="3">
+        <v>58.302122347066167</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>145</v>
+      </c>
+      <c r="B81" t="s">
+        <v>146</v>
+      </c>
+      <c r="C81" s="3">
+        <v>53.960396039603957</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>147</v>
+      </c>
+      <c r="B82" t="s">
+        <v>148</v>
+      </c>
+      <c r="C82" s="3">
+        <v>34.090295282679143</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>149</v>
+      </c>
+      <c r="B83" t="s">
+        <v>150</v>
+      </c>
+      <c r="C83" s="3">
+        <v>42.173866207045137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>151</v>
+      </c>
+      <c r="B84" t="s">
+        <v>152</v>
+      </c>
+      <c r="C84" s="3">
+        <v>71.051579368252703</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>153</v>
+      </c>
+      <c r="B85" t="s">
+        <v>154</v>
+      </c>
+      <c r="C85" s="3">
+        <v>56.650727042061092</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>155</v>
+      </c>
+      <c r="B86" t="s">
+        <v>156</v>
+      </c>
+      <c r="C86" s="3">
+        <v>62.091596518761577</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>157</v>
+      </c>
+      <c r="B87" t="s">
+        <v>158</v>
+      </c>
+      <c r="C87" s="3">
+        <v>45.57823129251701</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>159</v>
+      </c>
+      <c r="B88" t="s">
+        <v>160</v>
+      </c>
+      <c r="C88" s="3">
+        <v>28.026117528879968</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>161</v>
+      </c>
+      <c r="B89" t="s">
+        <v>162</v>
+      </c>
+      <c r="C89" s="3">
+        <v>70.258839451869378</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>163</v>
+      </c>
+      <c r="B90" t="s">
+        <v>164</v>
+      </c>
+      <c r="C90" s="3">
+        <v>4705.533596837945</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>165</v>
+      </c>
+      <c r="B91" t="s">
+        <v>166</v>
+      </c>
+      <c r="C91" s="3">
+        <v>56.764824062912588</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>167</v>
+      </c>
+      <c r="B92" t="s">
+        <v>168</v>
+      </c>
+      <c r="C92" s="3">
+        <v>68.518691153164909</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>169</v>
+      </c>
+      <c r="B93" t="s">
+        <v>170</v>
+      </c>
+      <c r="C93" s="3">
+        <v>111.7575015309247</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>171</v>
+      </c>
+      <c r="B94" t="s">
+        <v>172</v>
+      </c>
+      <c r="C94" s="3">
+        <v>66.260997067448685</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>173</v>
+      </c>
+      <c r="B95" t="s">
+        <v>174</v>
+      </c>
+      <c r="C95" s="3">
+        <v>65.940424316022558</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>175</v>
+      </c>
+      <c r="B96" t="s">
+        <v>176</v>
+      </c>
+      <c r="C96" s="3">
+        <v>58.320938687820188</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>177</v>
+      </c>
+      <c r="B97" t="s">
+        <v>178</v>
+      </c>
+      <c r="C97" s="3">
+        <v>80.324376331523624</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>179</v>
+      </c>
+      <c r="B98" t="s">
+        <v>180</v>
+      </c>
+      <c r="C98" s="3">
+        <v>45.215759849906171</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>181</v>
+      </c>
+      <c r="B99" t="s">
+        <v>182</v>
+      </c>
+      <c r="C99" s="3">
+        <v>150.6813226744186</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>183</v>
+      </c>
+      <c r="B100" t="s">
+        <v>184</v>
+      </c>
+      <c r="C100" s="3">
+        <v>52.797500710025567</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>185</v>
+      </c>
+      <c r="B101" t="s">
+        <v>186</v>
+      </c>
+      <c r="C101" s="3">
+        <v>85.484844825504155</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>187</v>
+      </c>
+      <c r="B102" t="s">
+        <v>188</v>
+      </c>
+      <c r="C102" s="3">
+        <v>63.838664812239209</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>189</v>
+      </c>
+      <c r="B103" t="s">
+        <v>190</v>
+      </c>
+      <c r="C103" s="3">
+        <v>260.28678304239401</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>191</v>
+      </c>
+      <c r="B104" t="s">
+        <v>192</v>
+      </c>
+      <c r="C104" s="3">
+        <v>1011.708729830368</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>193</v>
+      </c>
+      <c r="B105" t="s">
+        <v>194</v>
+      </c>
+      <c r="C105" s="3">
+        <v>49.349813312733353</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>195</v>
+      </c>
+      <c r="B106" t="s">
+        <v>196</v>
+      </c>
+      <c r="C106" s="3">
+        <v>298.72888585565602</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>197</v>
+      </c>
+      <c r="B107" t="s">
+        <v>198</v>
+      </c>
+      <c r="C107" s="3">
+        <v>45.609778017435062</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>189</v>
+      </c>
+      <c r="B108" t="s">
+        <v>190</v>
+      </c>
+      <c r="C108" s="3">
+        <v>260.28678304239401</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>199</v>
+      </c>
+      <c r="B109" t="s">
+        <v>200</v>
+      </c>
+      <c r="C109" s="3">
+        <v>100.0789043566477</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>202</v>
+      </c>
+      <c r="B111" t="s">
+        <v>203</v>
+      </c>
+      <c r="C111" s="3">
+        <v>137.96463370624321</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>204</v>
+      </c>
+      <c r="B112" t="s">
+        <v>205</v>
+      </c>
+      <c r="C112" s="3">
+        <v>39.814911638607128</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>206</v>
+      </c>
+      <c r="B113" t="s">
+        <v>207</v>
+      </c>
+      <c r="C113" s="3">
+        <v>1.1337868480725619</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>193</v>
+      </c>
+      <c r="B114" t="s">
+        <v>194</v>
+      </c>
+      <c r="C114" s="3">
+        <v>49.349813312733353</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>208</v>
+      </c>
+      <c r="B115" t="s">
+        <v>209</v>
+      </c>
+      <c r="C115" s="3">
+        <v>108.83928571428569</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>210</v>
+      </c>
+      <c r="B116" t="s">
+        <v>211</v>
+      </c>
+      <c r="C116" s="3">
+        <v>237.35393893705239</v>
       </c>
     </row>
   </sheetData>
